--- a/data_year/zb/卫生/医疗卫生机构住院服务情况.xlsx
+++ b/data_year/zb/卫生/医疗卫生机构住院服务情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,270 +468,261 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11482.8056</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>14173.5485</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2904.338</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14137.9899</v>
+      </c>
+      <c r="E2" t="n">
+        <v>657.4068</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91.9521367895799</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.97811101966522</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13256.2637</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>15297.6533</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3272.8749</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15264.8247</v>
+      </c>
+      <c r="E3" t="n">
+        <v>699.9242</v>
+      </c>
+      <c r="F3" t="n">
+        <v>91.3875531093224</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.97938659329875</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14173.5485</v>
+        <v>17857.0984</v>
       </c>
       <c r="C4" t="n">
-        <v>2904.338</v>
+        <v>3690.2542</v>
       </c>
       <c r="D4" t="n">
-        <v>14137.9899</v>
-      </c>
-      <c r="E4" t="n">
-        <v>657.4068</v>
-      </c>
-      <c r="F4" t="n">
-        <v>91.9521367895799</v>
-      </c>
+        <v>17840.3343</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>3.97811101966522</v>
+        <v>4.22528526449498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15297.6533</v>
+        <v>19215.4557</v>
       </c>
       <c r="C5" t="n">
-        <v>3272.8749</v>
+        <v>3982.7592</v>
       </c>
       <c r="D5" t="n">
-        <v>15264.8247</v>
-      </c>
-      <c r="E5" t="n">
-        <v>699.9242</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91.3875531093224</v>
-      </c>
+        <v>19119.931</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>3.97938659329875</v>
+        <v>4.25077917423133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17857.0984</v>
+        <v>20441.1818</v>
       </c>
       <c r="C6" t="n">
-        <v>3690.2542</v>
+        <v>4382.9194</v>
       </c>
       <c r="D6" t="n">
-        <v>17840.3343</v>
+        <v>20365.7291</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>4.22528526449498</v>
+        <v>4.2440240432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19215.4557</v>
+        <v>21053.8</v>
       </c>
       <c r="C7" t="n">
-        <v>3982.7592</v>
+        <v>4555.7</v>
       </c>
       <c r="D7" t="n">
-        <v>19119.931</v>
+        <v>20955</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>4.25077917423133</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20441.1818</v>
+        <v>22727.5798</v>
       </c>
       <c r="C8" t="n">
-        <v>4382.9194</v>
+        <v>5082.1967</v>
       </c>
       <c r="D8" t="n">
-        <v>20365.7291</v>
+        <v>22603.6388</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>4.2440240432</v>
+        <v>4.3500816653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21053.8</v>
+        <v>24435.8844</v>
       </c>
       <c r="C9" t="n">
-        <v>4555.7</v>
+        <v>5595.7052</v>
       </c>
       <c r="D9" t="n">
-        <v>20955</v>
+        <v>24315.7099</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22727.5798</v>
+        <v>25454.3312</v>
       </c>
       <c r="C10" t="n">
-        <v>5082.1967</v>
+        <v>6171.578</v>
       </c>
       <c r="D10" t="n">
-        <v>22603.6388</v>
+        <v>25384.6595</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>4.3500816653</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24435.8844</v>
+        <v>26596.1246</v>
       </c>
       <c r="C11" t="n">
-        <v>5595.7052</v>
+        <v>6930.44</v>
       </c>
       <c r="D11" t="n">
-        <v>24315.7099</v>
+        <v>26502.66</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25454.3312</v>
+        <v>23012.8</v>
       </c>
       <c r="C12" t="n">
-        <v>6171.578</v>
+        <v>6663.74</v>
       </c>
       <c r="D12" t="n">
-        <v>25384.6595</v>
+        <v>22980.6</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26596.1246</v>
+        <v>24731.8</v>
       </c>
       <c r="C13" t="n">
-        <v>6930.44</v>
+        <v>8103.1</v>
       </c>
       <c r="D13" t="n">
-        <v>26502.66</v>
+        <v>24642.1</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>23012.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6663.74</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22980.6</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
